--- a/src/PCB_import.xlsx
+++ b/src/PCB_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MottMacDonald\Projects\Gowanus Data Parsing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MottMacDonald\GitHub\GowanasParser\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A680B1B9-2467-4023-AAF4-A339D91FD4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1038175F-6DFF-40CD-A821-5B20164C0C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{EE0452CD-C2A1-4973-BCF5-A67C89BB9F26}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{EE0452CD-C2A1-4973-BCF5-A67C89BB9F26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1662,16 +1662,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -10512,8 +10520,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K2431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -94623,6 +94631,105 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">518300060-1544966748-115</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">
+      <Url>https://mottmac.sharepoint.com/teams/pj-f6246/_layouts/15/DocIdRedir.aspx?ID=518300060-1544966748-115</Url>
+      <Description>518300060-1544966748-115</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MMSourceID xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LastDateSharedToProjectMemory xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <LastVersionSharedToProjectMemory xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="3bee4c5c-8f43-4f7f-9637-07f983ecca3d" ContentTypeId="0x0101007BD61AFCC8A643B8924AB3F7EE18260102" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Project Document" ma:contentTypeID="0x0101007BD61AFCC8A643B8924AB3F7EE182601020084413E716EBAB440AB238B532D287873" ma:contentTypeVersion="7" ma:contentTypeDescription="Base content type for project documents" ma:contentTypeScope="" ma:versionID="ea295d679e5b3b1d2cbffa67e9b0f7b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="980b2c76-4eb4-4926-991a-bb246786b55e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e75c448179d2164d372670058c121c65" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -94890,106 +94997,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="3bee4c5c-8f43-4f7f-9637-07f983ecca3d" ContentTypeId="0x0101007BD61AFCC8A643B8924AB3F7EE18260102" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2643766-571F-44D9-8D72-20BA6CA8A2D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="980b2c76-4eb4-4926-991a-bb246786b55e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5F535C-C87D-47F4-AF6A-E645BD1F6CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DEDE2B-43C8-4F32-B162-11B0A11F925E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">518300060-1544966748-115</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">
-      <Url>https://mottmac.sharepoint.com/teams/pj-f6246/_layouts/15/DocIdRedir.aspx?ID=518300060-1544966748-115</Url>
-      <Description>518300060-1544966748-115</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="980b2c76-4eb4-4926-991a-bb246786b55e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MMSourceID xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LastDateSharedToProjectMemory xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <LastVersionSharedToProjectMemory xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="980b2c76-4eb4-4926-991a-bb246786b55e" xsi:nil="true"/>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FBF601B-E6D8-4765-8D5A-AC1624A950D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383A4BB-2BCF-47B7-882F-072894F003EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -95006,39 +95049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FBF601B-E6D8-4765-8D5A-AC1624A950D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DEDE2B-43C8-4F32-B162-11B0A11F925E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5F535C-C87D-47F4-AF6A-E645BD1F6CB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2643766-571F-44D9-8D72-20BA6CA8A2D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="980b2c76-4eb4-4926-991a-bb246786b55e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>